--- a/result/i7-12700 result.xlsx
+++ b/result/i7-12700 result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\L-BFGS_FPGA-main\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BA41B7-88C3-4899-B4C9-2841A3C72331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A17B2-D420-41E0-8ACA-8D3574FE48CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,58 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="26">
-  <si>
-    <t>更新结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDU用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线搜索用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="35">
   <si>
     <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3轮</t>
-  </si>
-  <si>
-    <t>第4轮</t>
-  </si>
-  <si>
-    <t>第5轮</t>
-  </si>
-  <si>
-    <t>第6轮</t>
-  </si>
-  <si>
-    <t>第7轮</t>
-  </si>
-  <si>
-    <t>第8轮</t>
-  </si>
-  <si>
-    <t>第9轮</t>
-  </si>
-  <si>
-    <t>第10轮</t>
-  </si>
-  <si>
-    <t>第11轮</t>
-  </si>
-  <si>
-    <t>第12轮</t>
-  </si>
-  <si>
-    <t>第13轮</t>
-  </si>
-  <si>
-    <t>第14轮</t>
   </si>
   <si>
     <t>object function value</t>
@@ -103,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +66,91 @@
   </si>
   <si>
     <t>round 2</t>
+  </si>
+  <si>
+    <t>GCU time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSU time</t>
+  </si>
+  <si>
+    <t>object function value</t>
+  </si>
+  <si>
+    <t>SDU time</t>
+  </si>
+  <si>
+    <t>round 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3</t>
+  </si>
+  <si>
+    <t>round 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 4</t>
+  </si>
+  <si>
+    <t>round 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 5</t>
+  </si>
+  <si>
+    <t>round 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 6</t>
+  </si>
+  <si>
+    <t>round 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 7</t>
+  </si>
+  <si>
+    <t>round 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 8</t>
+  </si>
+  <si>
+    <t>round 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 9</t>
+  </si>
+  <si>
+    <t>round 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 10</t>
+  </si>
+  <si>
+    <t>round 11</t>
+  </si>
+  <si>
+    <t>round 12</t>
+  </si>
+  <si>
+    <t>round 13</t>
+  </si>
+  <si>
+    <t>round 14</t>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -499,6 +532,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -800,318 +836,318 @@
         <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:102" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BI2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BQ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BS2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BW2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CJ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CK2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CL2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CM2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CQ2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CR2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CS2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CT2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CU2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CV2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CW2" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="CX2" s="4"/>
     </row>
     <row r="3" spans="1:102" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>907.97019999999998</v>
@@ -1420,7 +1456,7 @@
     </row>
     <row r="4" spans="1:102" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1.5974044799804601E-4</v>
@@ -1729,7 +1765,7 @@
     </row>
     <row r="5" spans="1:102" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4">
         <v>1.5974044799804601E-4</v>
@@ -2038,313 +2074,313 @@
     </row>
     <row r="6" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CO6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CV6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CX6" s="1"/>
     </row>
     <row r="7" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>8.3854198455810495E-3</v>
@@ -2653,7 +2689,7 @@
     </row>
     <row r="8" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>2.5377998352050699E-4</v>
@@ -2962,7 +2998,7 @@
     </row>
     <row r="9" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>1.7710876400000001E-5</v>
@@ -3271,7 +3307,7 @@
     </row>
     <row r="10" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>747.04844955999999</v>
@@ -3580,7 +3616,7 @@
     </row>
     <row r="11" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>1.4863014221191399E-2</v>
@@ -3889,7 +3925,7 @@
     </row>
     <row r="12" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>1.5175819396972601E-2</v>
@@ -4198,313 +4234,313 @@
     </row>
     <row r="13" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CB13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CC13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CE13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CF13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CG13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CI13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CJ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CL13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CM13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CO13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CQ13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CR13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CS13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CT13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CU13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CV13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CW13" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="CX13" s="1"/>
     </row>
     <row r="14" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>6.13927841186523E-4</v>
@@ -4813,7 +4849,7 @@
     </row>
     <row r="15" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>3.5524368286132802E-4</v>
@@ -5122,7 +5158,7 @@
     </row>
     <row r="16" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3">
         <v>3.2218753999999998E-9</v>
@@ -5431,7 +5467,7 @@
     </row>
     <row r="17" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>732.63775831999999</v>
@@ -5740,7 +5776,7 @@
     </row>
     <row r="18" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>1.04615688323974E-2</v>
@@ -6049,7 +6085,7 @@
     </row>
     <row r="19" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>2.5646209716796799E-2</v>
@@ -6358,313 +6394,313 @@
     </row>
     <row r="20" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CB20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CC20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CF20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CG20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CI20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CJ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CK20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CL20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CM20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CN20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CO20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CP20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CQ20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CR20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CS20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CT20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CU20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CV20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CW20" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="CX20" s="1"/>
     </row>
     <row r="21" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>5.5789947509765603E-4</v>
@@ -6973,7 +7009,7 @@
     </row>
     <row r="22" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>3.5333633422851497E-4</v>
@@ -7282,7 +7318,7 @@
     </row>
     <row r="23" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3">
         <v>1.6843680699999999E-5</v>
@@ -7591,7 +7627,7 @@
     </row>
     <row r="24" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>501.53589547000001</v>
@@ -7900,7 +7936,7 @@
     </row>
     <row r="25" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>1.09784603118896E-2</v>
@@ -8209,7 +8245,7 @@
     </row>
     <row r="26" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>3.6644220352172803E-2</v>
@@ -8518,313 +8554,313 @@
     </row>
     <row r="27" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AY27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AZ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BD27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BE27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BF27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BI27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BJ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BK27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BO27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BP27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BQ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BR27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BS27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BU27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BV27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BW27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BY27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BZ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CB27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CC27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CF27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CG27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CH27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CI27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CJ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CK27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CL27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CM27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CN27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CO27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CP27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CQ27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CR27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CS27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CT27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CU27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CV27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CW27" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CX27" s="1"/>
     </row>
     <row r="28" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
         <v>6.8950653076171799E-4</v>
@@ -9133,7 +9169,7 @@
     </row>
     <row r="29" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
         <v>3.44514846801757E-4</v>
@@ -9442,7 +9478,7 @@
     </row>
     <row r="30" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" s="3">
         <v>6.7920479400000004E-5</v>
@@ -9751,7 +9787,7 @@
     </row>
     <row r="31" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>436.32067905000002</v>
@@ -10060,7 +10096,7 @@
     </row>
     <row r="32" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
         <v>1.06627941131591E-2</v>
@@ -10369,7 +10405,7 @@
     </row>
     <row r="33" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>4.7326326370239202E-2</v>
@@ -10678,313 +10714,313 @@
     </row>
     <row r="34" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AH34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AN34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AV34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AZ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BA34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BB34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BD34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BE34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BF34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BJ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BK34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BM34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BN34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BO34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BP34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BQ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BR34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BS34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BT34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BU34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BV34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BX34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BY34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BZ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CA34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CB34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CC34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CE34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CF34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CG34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CH34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CI34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CJ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CK34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CL34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CM34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CN34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CO34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CP34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CQ34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CR34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CS34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CT34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CU34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CV34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CW34" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CX34" s="1"/>
     </row>
     <row r="35" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>8.2540512084960905E-4</v>
@@ -11293,7 +11329,7 @@
     </row>
     <row r="36" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
         <v>3.0517578125E-4</v>
@@ -11602,7 +11638,7 @@
     </row>
     <row r="37" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" s="3">
         <v>8.76621978E-5</v>
@@ -11911,7 +11947,7 @@
     </row>
     <row r="38" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>402.44138353</v>
@@ -12220,7 +12256,7 @@
     </row>
     <row r="39" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1">
         <v>1.0178804397582999E-2</v>
@@ -12529,7 +12565,7 @@
     </row>
     <row r="40" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>5.7521343231201102E-2</v>
@@ -12838,313 +12874,313 @@
     </row>
     <row r="41" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AL41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AM41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AP41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AS41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AW41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AX41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AY41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AZ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BA41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BB41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BD41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BE41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BF41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BH41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BI41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BJ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BK41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BM41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BN41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BO41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BP41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BQ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BR41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BS41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BT41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BU41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BV41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BW41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BX41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BY41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BZ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CA41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CB41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CC41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CD41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CE41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CF41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CG41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CH41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CI41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CJ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CK41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CL41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CM41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CN41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CO41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CP41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CQ41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CR41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CS41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CT41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CU41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CV41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CW41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="CX41" s="1"/>
     </row>
     <row r="42" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1">
         <v>8.0156326293945302E-4</v>
@@ -13453,7 +13489,7 @@
     </row>
     <row r="43" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
         <v>2.91347503662109E-4</v>
@@ -13762,7 +13798,7 @@
     </row>
     <row r="44" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="3">
         <v>5.7395381399999997E-5</v>
@@ -14071,7 +14107,7 @@
     </row>
     <row r="45" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
         <v>394.88294287000002</v>
@@ -14380,7 +14416,7 @@
     </row>
     <row r="46" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1">
         <v>9.9585056304931606E-3</v>
@@ -14689,7 +14725,7 @@
     </row>
     <row r="47" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>6.74939155578613E-2</v>
@@ -14998,313 +15034,313 @@
     </row>
     <row r="48" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AI48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AJ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AM48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AN48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AP48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AQ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AS48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AV48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AW48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AX48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AY48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AZ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BA48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BB48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BD48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BE48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BF48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BH48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BI48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BJ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BK48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BM48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BN48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BO48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BP48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BQ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BR48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BS48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BT48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BU48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BV48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BW48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BX48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BY48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BZ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CA48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CB48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CC48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CD48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CE48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CF48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CG48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CH48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CI48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CJ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CK48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CL48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CM48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CN48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CO48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CP48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CQ48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CR48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CS48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CT48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CU48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CV48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CW48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="CX48" s="1"/>
     </row>
     <row r="49" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
         <v>8.7285041809081999E-4</v>
@@ -15613,7 +15649,7 @@
     </row>
     <row r="50" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
         <v>2.6726722717285102E-4</v>
@@ -15922,7 +15958,7 @@
     </row>
     <row r="51" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B51" s="3">
         <v>5.6563099799999997E-5</v>
@@ -16231,7 +16267,7 @@
     </row>
     <row r="52" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1">
         <v>391.34143661000002</v>
@@ -16540,7 +16576,7 @@
     </row>
     <row r="53" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1">
         <v>9.8652839660644497E-3</v>
@@ -16849,7 +16885,7 @@
     </row>
     <row r="54" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <v>7.7368259429931599E-2</v>
@@ -17158,313 +17194,313 @@
     </row>
     <row r="55" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AI55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AJ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AL55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AN55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AP55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AQ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AS55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AV55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AW55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AX55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AY55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AZ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BA55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BB55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BC55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BD55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BE55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BF55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BH55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BI55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BJ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BK55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BM55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BN55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BO55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BP55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BQ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BR55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BS55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BT55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BU55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BV55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BW55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BX55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BY55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BZ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CA55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CB55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CC55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CD55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CE55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CF55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CG55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CH55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CI55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CJ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CK55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CL55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CM55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CN55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CO55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CP55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CQ55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CR55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CS55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CT55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CU55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CV55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CW55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CX55" s="1"/>
     </row>
     <row r="56" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1">
         <v>9.9515914916992101E-4</v>
@@ -17773,7 +17809,7 @@
     </row>
     <row r="57" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>2.9659271240234299E-4</v>
@@ -18082,7 +18118,7 @@
     </row>
     <row r="58" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1">
         <v>1.3307E-4</v>
@@ -18391,7 +18427,7 @@
     </row>
     <row r="59" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1">
         <v>389.33962332999999</v>
@@ -18700,7 +18736,7 @@
     </row>
     <row r="60" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1">
         <v>1.09529495239257E-2</v>
@@ -19009,7 +19045,7 @@
     </row>
     <row r="61" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>8.8329315185546806E-2</v>
@@ -19318,313 +19354,313 @@
     </row>
     <row r="62" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AN62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AO62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AP62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AQ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AS62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AV62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AW62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AX62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AY62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AZ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BA62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BB62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BC62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BD62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BE62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BF62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BH62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BI62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BJ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BK62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BL62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BM62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BN62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BO62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BP62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BQ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BR62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BS62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BT62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BU62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BV62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BW62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BX62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BY62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BZ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CA62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CB62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CC62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CD62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CE62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CF62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CG62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CH62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CI62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CJ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CK62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CL62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CM62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CN62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CO62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CP62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CQ62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CR62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CS62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CT62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CU62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CV62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CW62" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CX62" s="1"/>
     </row>
     <row r="63" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1">
         <v>1.1310577392578099E-3</v>
@@ -19933,7 +19969,7 @@
     </row>
     <row r="64" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
         <v>3.204345703125E-4</v>
@@ -20242,7 +20278,7 @@
     </row>
     <row r="65" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B65" s="3">
         <v>7.2582287400000002E-5</v>
@@ -20551,7 +20587,7 @@
     </row>
     <row r="66" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1">
         <v>389.01280310999999</v>
@@ -20860,7 +20896,7 @@
     </row>
     <row r="67" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1">
         <v>1.0160684585571201E-2</v>
@@ -21169,7 +21205,7 @@
     </row>
     <row r="68" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>9.8507642745971596E-2</v>
@@ -21478,313 +21514,313 @@
     </row>
     <row r="69" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AI69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AM69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AN69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AO69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AP69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AQ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AS69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AT69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AV69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AW69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AX69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AZ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BA69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BB69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BC69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BD69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BE69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BF69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BH69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BI69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BJ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BK69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BL69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BM69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BN69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BO69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BP69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BQ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BR69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BS69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BT69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BU69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BV69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BW69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BX69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BY69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="BZ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CA69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CB69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CC69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CD69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CE69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CF69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CG69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CH69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CI69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CJ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CK69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CL69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CM69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CN69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CO69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CP69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CQ69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CR69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CS69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CT69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CU69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CV69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CW69" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="CX69" s="1"/>
     </row>
     <row r="70" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1">
         <v>1.38068199157714E-3</v>
@@ -22093,7 +22129,7 @@
     </row>
     <row r="71" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1">
         <v>3.2973289489746002E-4</v>
@@ -22402,7 +22438,7 @@
     </row>
     <row r="72" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1">
         <v>1.1993999999999999E-4</v>
@@ -22711,7 +22747,7 @@
     </row>
     <row r="73" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
         <v>388.66152586999999</v>
@@ -23020,7 +23056,7 @@
     </row>
     <row r="74" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1">
         <v>1.16169452667236E-2</v>
@@ -23329,7 +23365,7 @@
     </row>
     <row r="75" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>0.110140085220336</v>
@@ -23638,313 +23674,313 @@
     </row>
     <row r="76" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AH76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AI76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AJ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AK76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AL76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AM76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AN76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AO76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AP76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AQ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AS76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AV76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AW76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AX76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AY76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AZ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BA76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BB76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BC76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BD76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BE76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BF76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BH76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BI76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BJ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BK76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BM76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BN76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BO76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BP76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BQ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BR76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BS76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BT76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BU76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BV76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BW76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BX76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BY76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BZ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CA76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CB76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CC76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CD76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CE76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CF76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CG76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CH76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CI76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CJ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CK76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CL76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CM76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CN76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CO76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CP76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CQ76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CR76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CS76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CT76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CU76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CV76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CW76" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CX76" s="1"/>
     </row>
     <row r="77" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
         <v>1.7423629760742101E-3</v>
@@ -24253,7 +24289,7 @@
     </row>
     <row r="78" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1">
         <v>3.6692619323730398E-4</v>
@@ -24562,7 +24598,7 @@
     </row>
     <row r="79" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3">
         <v>6.5559129900000004E-5</v>
@@ -24871,7 +24907,7 @@
     </row>
     <row r="80" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1">
         <v>388.59688273</v>
@@ -25180,7 +25216,7 @@
     </row>
     <row r="81" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1">
         <v>1.1223793029785101E-2</v>
@@ -25489,7 +25525,7 @@
     </row>
     <row r="82" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>0.121381521224975</v>
@@ -25798,313 +25834,313 @@
     </row>
     <row r="83" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AM83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AN83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AO83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AP83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AQ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AS83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AV83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AW83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AX83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AY83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AZ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BA83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BB83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BC83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BD83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BE83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BF83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BH83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BI83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BJ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BK83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BL83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BM83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BN83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BO83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BP83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BQ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BR83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BS83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BT83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BU83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BV83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BW83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BX83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BY83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BZ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CA83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CB83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CC83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CD83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CE83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CF83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CG83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CH83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CI83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CJ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CK83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CL83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CM83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CN83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CO83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CP83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CQ83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CR83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CS83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CT83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CU83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CV83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CW83" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="CX83" s="1"/>
     </row>
     <row r="84" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
         <v>1.34038925170898E-3</v>
@@ -26413,7 +26449,7 @@
     </row>
     <row r="85" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1">
         <v>2.899169921875E-4</v>
@@ -26722,7 +26758,7 @@
     </row>
     <row r="86" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B86" s="1">
         <v>1.6852999999999999E-4</v>
@@ -27031,7 +27067,7 @@
     </row>
     <row r="87" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1">
         <v>388.56697473000003</v>
@@ -27340,7 +27376,7 @@
     </row>
     <row r="88" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1">
         <v>1.0712385177612299E-2</v>
@@ -27649,7 +27685,7 @@
     </row>
     <row r="89" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <v>0.13210940361022899</v>
@@ -27958,313 +27994,313 @@
     </row>
     <row r="90" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AN90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AO90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AP90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AS90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AT90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AV90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AW90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AX90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AY90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AZ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BA90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BB90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BC90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BD90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BE90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BF90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BH90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BI90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BJ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BK90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BL90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BM90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BN90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BO90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BP90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BQ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BR90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BS90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BT90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BU90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BV90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BW90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BX90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BY90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BZ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CA90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CB90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CC90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CD90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CE90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CF90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CG90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CH90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CI90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CJ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CK90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CL90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CM90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CN90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CO90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CP90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CQ90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CR90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CS90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CT90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CU90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CV90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CW90" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="CX90" s="1"/>
     </row>
     <row r="91" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B91" s="1">
         <v>1.27673149108886E-3</v>
@@ -28573,7 +28609,7 @@
     </row>
     <row r="92" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1">
         <v>2.8133392333984299E-4</v>
@@ -28882,7 +28918,7 @@
     </row>
     <row r="93" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B93" s="1">
         <v>1.4008E-4</v>
@@ -29191,7 +29227,7 @@
     </row>
     <row r="94" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1">
         <v>388.55957702000001</v>
@@ -29500,7 +29536,7 @@
     </row>
     <row r="95" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1">
         <v>1.05593204498291E-2</v>
@@ -29809,7 +29845,7 @@
     </row>
     <row r="96" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <v>0.14268064498901301</v>
@@ -30118,313 +30154,313 @@
     </row>
     <row r="97" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AH97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AL97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AM97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AN97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AP97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AQ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AS97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AT97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AV97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AW97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AX97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AY97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AZ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BA97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BB97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BC97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BD97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BE97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BF97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BH97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BI97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BJ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BK97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BL97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BM97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BN97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BO97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BP97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BQ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BR97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BS97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BT97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BU97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BV97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BW97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BX97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BY97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BZ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CA97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CB97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CC97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CD97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CE97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CF97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CG97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CH97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CI97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CJ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CK97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CL97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CM97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CN97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CO97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CP97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CQ97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CR97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CS97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CT97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CU97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CV97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CW97" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="CX97" s="1"/>
     </row>
     <row r="98" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B98" s="1">
         <v>1.4717578887939401E-3</v>
@@ -30733,7 +30769,7 @@
     </row>
     <row r="99" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1">
         <v>2.7155876159667898E-4</v>
@@ -31042,7 +31078,7 @@
     </row>
     <row r="100" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B100" s="3">
         <v>6.0038176500000001E-9</v>
@@ -31351,7 +31387,7 @@
     </row>
     <row r="101" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B101" s="1">
         <v>388.55957696000002</v>
@@ -31660,7 +31696,7 @@
     </row>
     <row r="102" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1">
         <v>1.15118026733398E-2</v>
@@ -31969,7 +32005,7 @@
     </row>
     <row r="103" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>0.15420103073120101</v>
